--- a/データ検証/EIPA/xBRL/TOC XBRLGL-WGWD_2012-12-01-v4.xlsx
+++ b/データ検証/EIPA/xBRL/TOC XBRLGL-WGWD_2012-12-01-v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/データ検証/EIPA/xBRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A58305CA-381C-244A-8D68-5594B4A3D3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{573685A0-5265-754C-A9DB-43C920DC72C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="16000" tabRatio="500" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTS" sheetId="1" r:id="rId1"/>
@@ -12029,8 +12029,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:L427"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C436" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C348" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="M363" sqref="M363"/>
@@ -68902,7 +68902,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
